--- a/Tables/Price_Resid_UR_Test.xlsx
+++ b/Tables/Price_Resid_UR_Test.xlsx
@@ -368,7 +368,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>-21.69</v>
+        <v>-22.066</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -379,7 +379,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-18.725</v>
+        <v>-18.632</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>-14.352</v>
+        <v>-14.78</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -401,10 +401,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.685</v>
+        <v>-1.589</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.593</v>
       </c>
     </row>
   </sheetData>
